--- a/JmeterTests/Résultats Tests.xlsx
+++ b/JmeterTests/Résultats Tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\IdeaProjects\MicroS\Benchmark\JmeterTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B31235D-6E1A-422A-B450-7F27DCB84C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80ECCE6-704A-484A-9633-F70972A5479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="241">
   <si>
     <t>T0 — Configuration matérielle &amp; logicielle</t>
   </si>
@@ -210,9 +210,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>GET /categories/{id}/items</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Empreinte CPU/RAM</t>
   </si>
   <si>
-    <t>Facilité d’expo relationnelle</t>
-  </si>
-  <si>
     <t>Intel® Core™ i5-10310U CPU @ 1.70GHz | 4 Cœurs | 16 Go RAM</t>
   </si>
   <si>
@@ -300,16 +294,460 @@
     <t>Docker version 28.5.1, build e180ab8</t>
   </si>
   <si>
-    <t>100.67</t>
-  </si>
-  <si>
-    <t>34.27</t>
-  </si>
-  <si>
-    <t>3306.11</t>
-  </si>
-  <si>
     <t>5.6.3</t>
+  </si>
+  <si>
+    <t>B : @RestController</t>
+  </si>
+  <si>
+    <t>C : Spring Data REST</t>
+  </si>
+  <si>
+    <t>3,601.5/sec</t>
+  </si>
+  <si>
+    <t>1,880.5/sec</t>
+  </si>
+  <si>
+    <t>94.1/sec</t>
+  </si>
+  <si>
+    <t>~45*</t>
+  </si>
+  <si>
+    <t>~150*</t>
+  </si>
+  <si>
+    <t>~1,700*</t>
+  </si>
+  <si>
+    <t>~80*</t>
+  </si>
+  <si>
+    <t>~250*</t>
+  </si>
+  <si>
+    <t>~3,000*</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>151.1/sec</t>
+  </si>
+  <si>
+    <t>104.1/sec</t>
+  </si>
+  <si>
+    <t>74.2/sec</t>
+  </si>
+  <si>
+    <t>~539*</t>
+  </si>
+  <si>
+    <t>~1,221*</t>
+  </si>
+  <si>
+    <t>~1,044*</t>
+  </si>
+  <si>
+    <t>~666*</t>
+  </si>
+  <si>
+    <t>~1,423*</t>
+  </si>
+  <si>
+    <t>~1,331*</t>
+  </si>
+  <si>
+    <t>MIXED (50 threads)</t>
+  </si>
+  <si>
+    <t>195.6/sec</t>
+  </si>
+  <si>
+    <t>63.8/sec</t>
+  </si>
+  <si>
+    <t>56.7/sec</t>
+  </si>
+  <si>
+    <t>~487*</t>
+  </si>
+  <si>
+    <t>~1,493*</t>
+  </si>
+  <si>
+    <t>~1,519*</t>
+  </si>
+  <si>
+    <t>~610*</t>
+  </si>
+  <si>
+    <t>~1,698*</t>
+  </si>
+  <si>
+    <t>~1,732*</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>MIXED (100 threads)</t>
+  </si>
+  <si>
+    <t>210.7/sec</t>
+  </si>
+  <si>
+    <t>64.2/sec</t>
+  </si>
+  <si>
+    <t>54.5/sec</t>
+  </si>
+  <si>
+    <t>~735*</t>
+  </si>
+  <si>
+    <t>~2,492*</t>
+  </si>
+  <si>
+    <t>~3,028*</t>
+  </si>
+  <si>
+    <t>~877*</t>
+  </si>
+  <si>
+    <t>~2,598*</t>
+  </si>
+  <si>
+    <t>~3,171*</t>
+  </si>
+  <si>
+    <t>1.30%</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2,521.0/sec</t>
+  </si>
+  <si>
+    <t>~39*</t>
+  </si>
+  <si>
+    <t>Performance excellente</t>
+  </si>
+  <si>
+    <t>1,316.3/sec</t>
+  </si>
+  <si>
+    <t>~173*</t>
+  </si>
+  <si>
+    <t>Bon débit mais latence élevée</t>
+  </si>
+  <si>
+    <t>65.9/sec</t>
+  </si>
+  <si>
+    <t>~1,457*</t>
+  </si>
+  <si>
+    <t>Très lent</t>
+  </si>
+  <si>
+    <t>1,082.6/sec</t>
+  </si>
+  <si>
+    <t>~48*</t>
+  </si>
+  <si>
+    <t>Très performant</t>
+  </si>
+  <si>
+    <t>564.2/sec</t>
+  </si>
+  <si>
+    <t>~149*</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>28.2/sec</t>
+  </si>
+  <si>
+    <t>~1,272*</t>
+  </si>
+  <si>
+    <t>Extrêmement lent</t>
+  </si>
+  <si>
+    <t>78.2/sec</t>
+  </si>
+  <si>
+    <t>~576*</t>
+  </si>
+  <si>
+    <t>25.5/sec</t>
+  </si>
+  <si>
+    <t>~1,728*</t>
+  </si>
+  <si>
+    <t>Latence élevée</t>
+  </si>
+  <si>
+    <t>22.7/sec</t>
+  </si>
+  <si>
+    <t>~1,798*</t>
+  </si>
+  <si>
+    <t>39.1/sec</t>
+  </si>
+  <si>
+    <t>~305*</t>
+  </si>
+  <si>
+    <t>12.8/sec</t>
+  </si>
+  <si>
+    <t>~1,206*</t>
+  </si>
+  <si>
+    <t>1.19%</t>
+  </si>
+  <si>
+    <t>11.4/sec</t>
+  </si>
+  <si>
+    <t>~1,151*</t>
+  </si>
+  <si>
+    <t>2.60%</t>
+  </si>
+  <si>
+    <t>19.6/sec</t>
+  </si>
+  <si>
+    <t>~308*</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>6.4/sec</t>
+  </si>
+  <si>
+    <t>~1,155*</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>5.7/sec</t>
+  </si>
+  <si>
+    <t>~1,136*</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>Stable et performant</t>
+  </si>
+  <si>
+    <t>Latence 3x plus élevée</t>
+  </si>
+  <si>
+    <t>Le plus lent</t>
+  </si>
+  <si>
+    <t>Excellente performance</t>
+  </si>
+  <si>
+    <t>Latence élevée + erreurs</t>
+  </si>
+  <si>
+    <t>Taux d'erreur problématique</t>
+  </si>
+  <si>
+    <t>~298*</t>
+  </si>
+  <si>
+    <t>Très rapide et stable</t>
+  </si>
+  <si>
+    <t>~1,192*</t>
+  </si>
+  <si>
+    <t>4x plus lent que A</t>
+  </si>
+  <si>
+    <t>~1,169*</t>
+  </si>
+  <si>
+    <t>Performance médiocre</t>
+  </si>
+  <si>
+    <t>~307*</t>
+  </si>
+  <si>
+    <t>Performance optimale</t>
+  </si>
+  <si>
+    <t>~1,156*</t>
+  </si>
+  <si>
+    <t>Correct mais lent</t>
+  </si>
+  <si>
+    <t>~1,146*</t>
+  </si>
+  <si>
+    <t>15.5/sec</t>
+  </si>
+  <si>
+    <t>Bon débit</t>
+  </si>
+  <si>
+    <t>10.4/sec</t>
+  </si>
+  <si>
+    <t>~1,138*</t>
+  </si>
+  <si>
+    <t>7.4/sec</t>
+  </si>
+  <si>
+    <t>~987*</t>
+  </si>
+  <si>
+    <t>Plus lent en RPS</t>
+  </si>
+  <si>
+    <t>Très bon avec erreurs minimes</t>
+  </si>
+  <si>
+    <t>Correct, erreurs modérées</t>
+  </si>
+  <si>
+    <t>Plus d'erreurs, plus lent</t>
+  </si>
+  <si>
+    <t>3-10x plus rapide</t>
+  </si>
+  <si>
+    <t>Jersey: 3,600 RPS (JOIN) vs Spring Data REST: 94 RPS. Écart énorme sur les requêtes simples</t>
+  </si>
+  <si>
+    <t>60-80% plus rapide</t>
+  </si>
+  <si>
+    <t>Jersey: 15-450ms vs Spring: 597-1,742ms. Différence critique pour l'expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Jusqu'à 6x plus stable</t>
+  </si>
+  <si>
+    <t>Jersey: 0-0.42% erreurs vs Spring Data REST: 0.64-5.99%. Problèmes de fiabilité Spring Data REST</t>
+  </si>
+  <si>
+    <t>Facilité d'expo relationnelle</t>
+  </si>
+  <si>
+    <t>Développement 10x plus rapide</t>
+  </si>
+  <si>
+    <t>Code auto-généré vs code manuel. Trade-off évident: productivité dev vs performance</t>
+  </si>
+  <si>
+    <t>MIXED50</t>
+  </si>
+  <si>
+    <t>HTTP 409 Conflict</t>
+  </si>
+  <si>
+    <t>Conflits de sérialisation JSON, relations circulaires</t>
+  </si>
+  <si>
+    <t>Utiliser DTOs personnalisés, désactiver sérialisation automatique</t>
+  </si>
+  <si>
+    <t>HTTP 400/500</t>
+  </si>
+  <si>
+    <t>Validation données, contraintes base de données</t>
+  </si>
+  <si>
+    <t>Améliorer la validation, gestion d'erreurs centralisée</t>
+  </si>
+  <si>
+    <t>Références Category invalides, format HAL</t>
+  </si>
+  <si>
+    <t>Vérifier les IDs existants, customiser les repositories</t>
+  </si>
+  <si>
+    <t>Données malformées, timeout base</t>
+  </si>
+  <si>
+    <t>Optimiser les requêtes, augmenter timeouts</t>
+  </si>
+  <si>
+    <t>HTTP 400</t>
+  </si>
+  <si>
+    <t>Validation métier, contraintes unicité</t>
+  </si>
+  <si>
+    <t>Renforcer validation côté service</t>
+  </si>
+  <si>
+    <t>MIXED75</t>
+  </si>
+  <si>
+    <t>HTTP 409/400</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
+    <t>Concurrence accrue, conflits Spring Data REST</t>
+  </si>
+  <si>
+    <t>Implémenter verrous optimistes, réduire charge</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>Saturation resources, timeouts DB</t>
+  </si>
+  <si>
+    <t>Scaling horizontal, pool de connexions</t>
+  </si>
+  <si>
+    <t>MIXED100</t>
+  </si>
+  <si>
+    <t>5.99%</t>
+  </si>
+  <si>
+    <t>Pic de charge, limitations architecture Spring Data REST</t>
+  </si>
+  <si>
+    <t>Architecture microservices, cache, load balancing</t>
+  </si>
+  <si>
+    <t>Saturation mémoire, GC pauses</t>
+  </si>
+  <si>
+    <t>Optimiser JVM, monitoring heap</t>
   </si>
 </sst>
 </file>
@@ -514,43 +952,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,41 +1003,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,1086 +1328,1589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="25" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24">
+        <v>18</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="29">
-        <v>18</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+    <row r="21" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>41</v>
+      <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8">
+        <v>284</v>
+      </c>
+      <c r="E26" s="8">
+        <v>425</v>
+      </c>
+      <c r="F26" s="8">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="20" t="s">
+      <c r="E30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="20" t="s">
+      <c r="D31" s="8">
+        <v>15</v>
+      </c>
+      <c r="E31" s="8">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="20">
-        <v>200</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="20" t="s">
+      <c r="D32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="20" t="s">
+      <c r="D33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="20" t="s">
+      <c r="D34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="20" t="s">
+      <c r="D35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="20" t="s">
+      <c r="D36" s="8">
+        <v>242</v>
+      </c>
+      <c r="E36" s="8">
+        <v>683</v>
+      </c>
+      <c r="F36" s="8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="20" t="s">
+      <c r="D37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="20" t="s">
+      <c r="D38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="20" t="s">
+      <c r="D39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20" t="s">
+      <c r="D40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="20" t="s">
+      <c r="D41" s="8">
+        <v>450</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1.742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="20" t="s">
+      <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="20" t="s">
+      <c r="D43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:6" s="21" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:6" s="9" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:6" ht="37" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="C56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="15"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="B58" s="20" t="s">
+      <c r="C58" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="C59" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="20" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
-      <c r="B61" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="C61" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="63" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
+      <c r="A63" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+      <c r="B66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="17"/>
+      <c r="B68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B69" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20" t="s">
+      <c r="C69" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+      <c r="B70" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="17"/>
+      <c r="B71" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
+      <c r="C71" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B72" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="20" t="s">
+      <c r="C72" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="16"/>
+      <c r="B73" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17"/>
+      <c r="B74" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+      <c r="C74" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B75" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20" t="s">
+      <c r="C75" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17"/>
+      <c r="B77" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+      <c r="C77" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B78" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20" t="s">
+      <c r="C78" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17"/>
+      <c r="B80" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+      <c r="C80" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B81" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="18"/>
-      <c r="B79" s="20" t="s">
+      <c r="C81" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="B82" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="17"/>
+      <c r="B83" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="C83" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="85" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
+    </row>
+    <row r="86" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:6" ht="37" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:6" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="13" t="s">
+      <c r="B87" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="13" t="s">
+      <c r="D87" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="E87" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="F87" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F87" s="13" t="s">
+    </row>
+    <row r="88" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F91" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="98" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="92" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D100" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+      <c r="B101" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+    </row>
+    <row r="102" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+      <c r="B102" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+    </row>
+    <row r="103" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
+      <c r="B103" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+    </row>
+    <row r="104" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+    </row>
+    <row r="105" spans="1:6" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
+  <mergeCells count="63">
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
@@ -1981,39 +2927,14 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
